--- a/R/assets/PATH ANALYSIS.xlsx
+++ b/R/assets/PATH ANALYSIS.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Blog\Learn\R\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9807CD79-8446-42DD-8B05-CE2B009E6668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>TT</t>
   </si>
@@ -32,6 +38,57 @@
   </si>
   <si>
     <t>JCB</t>
+  </si>
+  <si>
+    <t>JCL</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>JAR</t>
+  </si>
+  <si>
+    <t>JPT</t>
+  </si>
+  <si>
+    <t>BPT</t>
+  </si>
+  <si>
+    <t>BPL</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>JBP</t>
+  </si>
+  <si>
+    <t>JBT</t>
+  </si>
+  <si>
+    <t>BBT</t>
+  </si>
+  <si>
+    <t>BBL</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>TB</t>
   </si>
   <si>
     <t>BSB</t>
@@ -40,9 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +109,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -84,32 +146,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -120,10 +191,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -161,71 +232,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -253,7 +324,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -276,11 +347,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -289,13 +360,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -305,7 +376,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -314,7 +385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -323,7 +394,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,10 +402,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -399,26 +470,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="7" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="24" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,215 +507,947 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>74.08</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2.83</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>5.35</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>5.42</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>3.08</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>6.11</v>
+      </c>
+      <c r="K2" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="L2" s="2">
+        <v>27.08</v>
+      </c>
+      <c r="M2" s="2">
+        <v>595.17999999999995</v>
+      </c>
+      <c r="N2" s="2">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="O2" s="2">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="P2" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="R2" s="2">
+        <v>87.75</v>
+      </c>
+      <c r="S2" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="T2" s="2">
+        <v>307.42</v>
+      </c>
+      <c r="U2" s="2">
+        <v>6.43</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5.76</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="X2" s="2">
         <v>14.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>57.83</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>5.32</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>2.83</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1.5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>2.66</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="I3" s="3">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.04</v>
+      </c>
+      <c r="K3" s="2">
+        <v>39.58</v>
+      </c>
+      <c r="L3" s="2">
+        <v>21.45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>489.76</v>
+      </c>
+      <c r="N3" s="2">
+        <v>50.28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>10.73</v>
+      </c>
+      <c r="P3" s="2">
+        <v>6.28</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="R3" s="2">
+        <v>70.67</v>
+      </c>
+      <c r="S3" s="2">
+        <v>12.58</v>
+      </c>
+      <c r="T3" s="2">
+        <v>294.61</v>
+      </c>
+      <c r="U3" s="2">
+        <v>8.69</v>
+      </c>
+      <c r="V3" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="W3" s="2">
+        <v>5.58</v>
+      </c>
+      <c r="X3" s="2">
         <v>22.37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>88.67</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.75</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>5.9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>4.58</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>1.92</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3.58</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
+        <v>10.08</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="I4" s="3">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5.92</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40.17</v>
+      </c>
+      <c r="L4" s="2">
+        <v>24.33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>577.78</v>
+      </c>
+      <c r="N4" s="2">
+        <v>40.98</v>
+      </c>
+      <c r="O4" s="2">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5.62</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="R4" s="2">
+        <v>89.08</v>
+      </c>
+      <c r="S4" s="2">
+        <v>13.08</v>
+      </c>
+      <c r="T4" s="2">
+        <v>299.95999999999998</v>
+      </c>
+      <c r="U4" s="2">
+        <v>7.17</v>
+      </c>
+      <c r="V4" s="2">
+        <v>5.87</v>
+      </c>
+      <c r="W4" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="X4" s="2">
         <v>13.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>77.83</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5.43</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>4.58</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>3.75</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
+        <v>10.33</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.91</v>
+      </c>
+      <c r="K5" s="2">
+        <v>66.75</v>
+      </c>
+      <c r="L5" s="2">
+        <v>22.63</v>
+      </c>
+      <c r="M5" s="2">
+        <v>498.12</v>
+      </c>
+      <c r="N5" s="2">
+        <v>34.56</v>
+      </c>
+      <c r="O5" s="2">
+        <v>8.14</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="R5" s="2">
+        <v>129.72</v>
+      </c>
+      <c r="S5" s="2">
+        <v>13.61</v>
+      </c>
+      <c r="T5" s="2">
+        <v>285.55</v>
+      </c>
+      <c r="U5" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="V5" s="2">
+        <v>5.03</v>
+      </c>
+      <c r="W5" s="2">
+        <v>4.29</v>
+      </c>
+      <c r="X5" s="2">
         <v>10.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>60.75</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.58</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>5.07</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2.92</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1.33</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1.92</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="I6" s="3">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2">
+        <v>6.41</v>
+      </c>
+      <c r="K6" s="2">
+        <v>37.67</v>
+      </c>
+      <c r="L6" s="2">
+        <v>25.34</v>
+      </c>
+      <c r="M6" s="2">
+        <v>574.85</v>
+      </c>
+      <c r="N6" s="2">
+        <v>45.33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>10.06</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5.87</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="R6" s="2">
+        <v>98.83</v>
+      </c>
+      <c r="S6" s="2">
+        <v>16.22</v>
+      </c>
+      <c r="T6" s="2">
+        <v>354.79</v>
+      </c>
+      <c r="U6" s="2">
+        <v>7.68</v>
+      </c>
+      <c r="V6" s="2">
+        <v>6.69</v>
+      </c>
+      <c r="W6" s="2">
+        <v>5.54</v>
+      </c>
+      <c r="X6" s="2">
         <v>18.66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>89.08</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>2.25</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>6.18</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>4.58</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>2.16</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>3.75</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="I7" s="3">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="K7" s="2">
+        <v>51.25</v>
+      </c>
+      <c r="L7" s="2">
+        <v>45.58</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1015.48</v>
+      </c>
+      <c r="N7" s="2">
+        <v>47.46</v>
+      </c>
+      <c r="O7" s="2">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="P7" s="2">
+        <v>6.58</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="R7" s="2">
+        <v>132.41999999999999</v>
+      </c>
+      <c r="S7" s="2">
+        <v>19.87</v>
+      </c>
+      <c r="T7" s="2">
+        <v>441.2</v>
+      </c>
+      <c r="U7" s="2">
+        <v>8.27</v>
+      </c>
+      <c r="V7" s="2">
+        <v>6.63</v>
+      </c>
+      <c r="W7" s="2">
+        <v>5.53</v>
+      </c>
+      <c r="X7" s="2">
         <v>21.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>68.58</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2.42</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>4.84</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>6.58</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>4.66</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
+        <v>14.25</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="I8" s="3">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="K8" s="2">
+        <v>74.08</v>
+      </c>
+      <c r="L8" s="2">
+        <v>22.61</v>
+      </c>
+      <c r="M8" s="2">
+        <v>554.79</v>
+      </c>
+      <c r="N8" s="2">
+        <v>35.35</v>
+      </c>
+      <c r="O8" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="R8" s="2">
+        <v>138.41999999999999</v>
+      </c>
+      <c r="S8" s="2">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="T8" s="2">
+        <v>380.96</v>
+      </c>
+      <c r="U8" s="2">
+        <v>6.77</v>
+      </c>
+      <c r="V8" s="2">
+        <v>5.55</v>
+      </c>
+      <c r="W8" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="X8" s="2">
         <v>12.35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>65.92</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>2.92</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>5.23</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>4.08</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>2.08</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>3.58</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7.09</v>
+      </c>
+      <c r="K9" s="2">
+        <v>49.83</v>
+      </c>
+      <c r="L9" s="2">
+        <v>23.97</v>
+      </c>
+      <c r="M9" s="2">
+        <v>544.71</v>
+      </c>
+      <c r="N9" s="2">
+        <v>50.53</v>
+      </c>
+      <c r="O9" s="2">
+        <v>9.27</v>
+      </c>
+      <c r="P9" s="2">
+        <v>6.13</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="R9" s="2">
+        <v>124.5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>15.93</v>
+      </c>
+      <c r="T9" s="2">
+        <v>360.17</v>
+      </c>
+      <c r="U9" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="V9" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="W9" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="X9" s="2">
         <v>17.46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>74</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>3.05</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>6.14</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>5.5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>2.33</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>4.92</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="I10" s="3">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5.53</v>
+      </c>
+      <c r="K10" s="2">
+        <v>37.75</v>
+      </c>
+      <c r="L10" s="2">
+        <v>24.17</v>
+      </c>
+      <c r="M10" s="2">
+        <v>536.99</v>
+      </c>
+      <c r="N10" s="2">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="O10" s="2">
+        <v>7.29</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4.59</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2.69</v>
+      </c>
+      <c r="R10" s="2">
+        <v>83.13</v>
+      </c>
+      <c r="S10" s="2">
+        <v>11.83</v>
+      </c>
+      <c r="T10" s="2">
+        <v>269.64999999999998</v>
+      </c>
+      <c r="U10" s="2">
+        <v>6.51</v>
+      </c>
+      <c r="V10" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="W10" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="X10" s="2">
         <v>13.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>81.42</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7.08</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I11" s="3">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5.42</v>
+      </c>
+      <c r="K11" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="L11" s="2">
+        <v>24.26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>445.75</v>
+      </c>
+      <c r="N11" s="2">
+        <v>46.56</v>
+      </c>
+      <c r="O11" s="2">
+        <v>9.18</v>
+      </c>
+      <c r="P11" s="2">
+        <v>6.11</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="R11" s="2">
+        <v>85.75</v>
+      </c>
+      <c r="S11" s="2">
+        <v>12.85</v>
+      </c>
+      <c r="T11" s="2">
+        <v>293.42</v>
+      </c>
+      <c r="U11" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="V11" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="W11" s="2">
+        <v>5.28</v>
+      </c>
+      <c r="X11" s="2">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>75.33</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.42</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.42</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="I12" s="3">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6.41</v>
+      </c>
+      <c r="K12" s="2">
+        <v>51.67</v>
+      </c>
+      <c r="L12" s="2">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="M12" s="2">
+        <v>411.38</v>
+      </c>
+      <c r="N12" s="2">
+        <v>44.05</v>
+      </c>
+      <c r="O12" s="2">
+        <v>9.18</v>
+      </c>
+      <c r="P12" s="2">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2.76</v>
+      </c>
+      <c r="R12" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="S12" s="2">
+        <v>11.87</v>
+      </c>
+      <c r="T12" s="2">
+        <v>263.66000000000003</v>
+      </c>
+      <c r="U12" s="2">
+        <v>7.26</v>
+      </c>
+      <c r="V12" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="W12" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="X12" s="2">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>76.58</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4.58</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>10.83</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.42</v>
+      </c>
+      <c r="I13" s="3">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6.67</v>
+      </c>
+      <c r="K13" s="2">
+        <v>68.42</v>
+      </c>
+      <c r="L13" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>428.29</v>
+      </c>
+      <c r="N13" s="2">
+        <v>41.21</v>
+      </c>
+      <c r="O13" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="P13" s="2">
+        <v>5.41</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="R13" s="2">
+        <v>98.33</v>
+      </c>
+      <c r="S13" s="2">
+        <v>16.82</v>
+      </c>
+      <c r="T13" s="2">
+        <v>333.76</v>
+      </c>
+      <c r="U13" s="2">
+        <v>6.98</v>
+      </c>
+      <c r="V13" s="2">
+        <v>5.08</v>
+      </c>
+      <c r="W13" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="X13" s="2">
+        <v>11.93</v>
       </c>
     </row>
   </sheetData>
